--- a/Assets/ExcelFile/1_PoliceNote.csv.xlsx
+++ b/Assets/ExcelFile/1_PoliceNote.csv.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\남정현\Documents\GitHub\Poliverse\Assets\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\test\Poliverse-Fork\Assets\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A3F0F3-5556-4A0A-B2F6-EE10C96EDE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427BC7F9-B37E-463E-933A-EF678B56C606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F8F1257B-76BA-4C6F-AD5C-8DA409C9F897}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{F8F1257B-76BA-4C6F-AD5C-8DA409C9F897}"/>
   </bookViews>
   <sheets>
     <sheet name="PoliceNote" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="5">
   <si>
     <t>minigame</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,16 +487,16 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.08203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f>"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-1_time</v>
@@ -524,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f>"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-1_type</v>
@@ -542,52 +540,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
-        <f t="shared" ref="A4:A21" si="0">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A4" si="0">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-2_time</v>
       </c>
       <c r="B4" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="D4" s="4">
         <v>0.75</v>
       </c>
-      <c r="E4" s="4">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
-        <f t="shared" ref="A5:A21" si="1">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A5" si="1">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-2_type</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
-        <f t="shared" ref="A6:A21" si="2">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A6" si="2">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-3_time</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
+      <c r="B6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>2</v>
@@ -596,16 +576,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
-        <f t="shared" ref="A7:A21" si="3">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A7" si="3">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-3_type</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>2</v>
@@ -614,45 +594,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
-        <f t="shared" ref="A8:A21" si="4">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A8" si="4">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-4_time</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>2</v>
+      <c r="B8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.75</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
-        <f t="shared" ref="A9:A21" si="5">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A9" si="5">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-4_type</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
-        <f t="shared" ref="A10:A21" si="6">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A10" si="6">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-5_time</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -668,9 +648,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
-        <f t="shared" ref="A11:A21" si="7">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A11" si="7">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-5_type</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -686,9 +666,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
-        <f t="shared" ref="A12:A21" si="8">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A12" si="8">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-6_time</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -704,9 +684,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
-        <f t="shared" ref="A13:A21" si="9">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A13" si="9">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-6_type</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -722,9 +702,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
-        <f t="shared" ref="A14:A21" si="10">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A14" si="10">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-7_time</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -740,9 +720,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
-        <f t="shared" ref="A15:A21" si="11">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A15" si="11">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-7_type</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -758,9 +738,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
-        <f t="shared" ref="A16:A21" si="12">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A16" si="12">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-8_time</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -776,9 +756,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
-        <f t="shared" ref="A17:A21" si="13">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A17" si="13">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-8_type</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -794,9 +774,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
-        <f t="shared" ref="A18:A21" si="14">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A18" si="14">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-9_time</v>
       </c>
       <c r="B18" s="5">
@@ -812,9 +792,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str">
-        <f t="shared" ref="A19:A21" si="15">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A19" si="15">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-9_type</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -830,9 +810,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
-        <f t="shared" ref="A20:A21" si="16">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A20" si="16">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-10_time</v>
       </c>
       <c r="B20" s="5">
@@ -848,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="str">
         <f t="shared" ref="A21" si="17">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-10_type</v>
@@ -884,13 +864,13 @@
       <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.08203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f>"2-" &amp; ROW()-1</f>
         <v>2-1</v>
@@ -916,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">"2-" &amp; ROW()-1</f>
         <v>2-2</v>
@@ -925,7 +905,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-3</v>
@@ -934,7 +914,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-4</v>
@@ -943,7 +923,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-5</v>
@@ -952,63 +932,63 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-6</v>
       </c>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-7</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2-15</v>
@@ -1031,13 +1011,13 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.08203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
         <f>"3-" &amp; ROW()-1</f>
         <v>3-1</v>
@@ -1063,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A16" si="0">"3-" &amp; ROW()-1</f>
         <v>3-2</v>
@@ -1072,7 +1052,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3-3</v>
@@ -1081,7 +1061,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3-4</v>
@@ -1090,7 +1070,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3-5</v>
@@ -1099,63 +1079,63 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3-6</v>
       </c>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3-7</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3-8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3-9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3-10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3-11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3-12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3-13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3-14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3-15</v>

--- a/Assets/ExcelFile/1_PoliceNote.csv.xlsx
+++ b/Assets/ExcelFile/1_PoliceNote.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\test\Poliverse-Fork\Assets\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427BC7F9-B37E-463E-933A-EF678B56C606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB86D09-C1F5-4DC4-91BC-90C6976E45B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{F8F1257B-76BA-4C6F-AD5C-8DA409C9F897}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
-        <f t="shared" ref="A4" si="0">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f>"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-2_time</v>
       </c>
       <c r="B4" s="5">
@@ -551,7 +551,7 @@
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
-        <f t="shared" ref="A5" si="1">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A5" si="0">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-2_type</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -560,7 +560,7 @@
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
-        <f t="shared" ref="A6" si="2">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A6" si="1">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-3_time</v>
       </c>
       <c r="B6" s="5">
@@ -578,7 +578,7 @@
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
-        <f t="shared" ref="A7" si="3">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A7" si="2">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-3_type</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -596,7 +596,7 @@
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="str">
-        <f t="shared" ref="A8" si="4">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A8" si="3">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-4_time</v>
       </c>
       <c r="B8" s="5">
@@ -614,7 +614,7 @@
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
-        <f t="shared" ref="A9" si="5">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A9" si="4">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-4_type</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -632,7 +632,7 @@
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="str">
-        <f t="shared" ref="A10" si="6">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A10" si="5">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-5_time</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -650,7 +650,7 @@
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
-        <f t="shared" ref="A11" si="7">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A11" si="6">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-5_type</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -668,7 +668,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
-        <f t="shared" ref="A12" si="8">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A12" si="7">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-6_time</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -686,7 +686,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
-        <f t="shared" ref="A13" si="9">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A13" si="8">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-6_type</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -704,7 +704,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="str">
-        <f t="shared" ref="A14" si="10">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A14" si="9">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-7_time</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -722,7 +722,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
-        <f t="shared" ref="A15" si="11">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A15" si="10">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-7_type</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -740,7 +740,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="str">
-        <f t="shared" ref="A16" si="12">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A16" si="11">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-8_time</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -758,7 +758,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="str">
-        <f t="shared" ref="A17" si="13">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A17" si="12">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-8_type</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -776,7 +776,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="str">
-        <f t="shared" ref="A18" si="14">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A18" si="13">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-9_time</v>
       </c>
       <c r="B18" s="5">
@@ -794,7 +794,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="str">
-        <f t="shared" ref="A19" si="15">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A19" si="14">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-9_type</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -812,7 +812,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="str">
-        <f t="shared" ref="A20" si="16">"1-" &amp; ROW()/2 &amp; "_time"</f>
+        <f t="shared" ref="A20" si="15">"1-" &amp; ROW()/2 &amp; "_time"</f>
         <v>1-10_time</v>
       </c>
       <c r="B20" s="5">
@@ -830,7 +830,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="str">
-        <f t="shared" ref="A21" si="17">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
+        <f t="shared" ref="A21" si="16">"1-" &amp; (ROW()-1)/2 &amp; "_type"</f>
         <v>1-10_type</v>
       </c>
       <c r="B21" s="4" t="s">
